--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cd177-Pecam1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cd177-Pecam1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Cd177</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.648113197397539</v>
+        <v>2.166130333333333</v>
       </c>
       <c r="H2">
-        <v>0.648113197397539</v>
+        <v>6.498391</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.237044430060999</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.237044430060999</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>301.63311320103</v>
+        <v>328.5062863333333</v>
       </c>
       <c r="N2">
-        <v>301.63311320103</v>
+        <v>985.518859</v>
       </c>
       <c r="O2">
-        <v>0.9557440537157788</v>
+        <v>0.9485223498994318</v>
       </c>
       <c r="P2">
-        <v>0.9557440537157788</v>
+        <v>0.9514072518130269</v>
       </c>
       <c r="Q2">
-        <v>195.4924014376934</v>
+        <v>711.5874315173187</v>
       </c>
       <c r="R2">
-        <v>195.4924014376934</v>
+        <v>6404.286883655869</v>
       </c>
       <c r="S2">
-        <v>0.9557440537157788</v>
+        <v>0.2248419398320302</v>
       </c>
       <c r="T2">
-        <v>0.9557440537157788</v>
+        <v>0.2255257897619203</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.648113197397539</v>
+        <v>2.166130333333333</v>
       </c>
       <c r="H3">
-        <v>0.648113197397539</v>
+        <v>6.498391</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.237044430060999</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.237044430060999</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.23768091967106</v>
+        <v>4.781633</v>
       </c>
       <c r="N3">
-        <v>4.23768091967106</v>
+        <v>14.344899</v>
       </c>
       <c r="O3">
-        <v>0.01342736643712298</v>
+        <v>0.01380638958279946</v>
       </c>
       <c r="P3">
-        <v>0.01342736643712298</v>
+        <v>0.0138483812973136</v>
       </c>
       <c r="Q3">
-        <v>2.746496930398555</v>
+        <v>10.35764028416767</v>
       </c>
       <c r="R3">
-        <v>2.746496930398555</v>
+        <v>93.218762557509</v>
       </c>
       <c r="S3">
-        <v>0.01342736643712298</v>
+        <v>0.003272727749854812</v>
       </c>
       <c r="T3">
-        <v>0.01342736643712298</v>
+        <v>0.0032826816518891</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.648113197397539</v>
+        <v>2.166130333333333</v>
       </c>
       <c r="H4">
-        <v>0.648113197397539</v>
+        <v>6.498391</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.237044430060999</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.237044430060999</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.17503002635881</v>
+        <v>5.094370666666666</v>
       </c>
       <c r="N4">
-        <v>2.17503002635881</v>
+        <v>15.283112</v>
       </c>
       <c r="O4">
-        <v>0.006891723499071744</v>
+        <v>0.0147093819419403</v>
       </c>
       <c r="P4">
-        <v>0.006891723499071744</v>
+        <v>0.01475412008028422</v>
       </c>
       <c r="Q4">
-        <v>1.409665664819062</v>
+        <v>11.03507083031022</v>
       </c>
       <c r="R4">
-        <v>1.409665664819062</v>
+        <v>99.31563747279199</v>
       </c>
       <c r="S4">
-        <v>0.006891723499071744</v>
+        <v>0.003486777058976788</v>
       </c>
       <c r="T4">
-        <v>0.006891723499071744</v>
+        <v>0.003497381985482513</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.648113197397539</v>
+        <v>2.166130333333333</v>
       </c>
       <c r="H5">
-        <v>0.648113197397539</v>
+        <v>6.498391</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.237044430060999</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.237044430060999</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.4516002505771</v>
+        <v>4.801979333333333</v>
       </c>
       <c r="N5">
-        <v>4.4516002505771</v>
+        <v>14.405938</v>
       </c>
       <c r="O5">
-        <v>0.01410518369106633</v>
+        <v>0.01386513717061757</v>
       </c>
       <c r="P5">
-        <v>0.01410518369106633</v>
+        <v>0.01390730756413546</v>
       </c>
       <c r="Q5">
-        <v>2.885140871937211</v>
+        <v>10.40171309397311</v>
       </c>
       <c r="R5">
-        <v>2.885140871937211</v>
+        <v>93.61541784575799</v>
       </c>
       <c r="S5">
-        <v>0.01410518369106633</v>
+        <v>0.003286653538326614</v>
       </c>
       <c r="T5">
-        <v>0.01410518369106633</v>
+        <v>0.003296649795223511</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,371 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.648113197397539</v>
+        <v>2.166130333333333</v>
       </c>
       <c r="H6">
-        <v>0.648113197397539</v>
+        <v>6.498391</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.237044430060999</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.237044430060999</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.10287887218628</v>
+        <v>3.150518</v>
       </c>
       <c r="N6">
-        <v>3.10287887218628</v>
+        <v>6.301036</v>
       </c>
       <c r="O6">
-        <v>0.009831672656960238</v>
+        <v>0.00909674140521077</v>
       </c>
       <c r="P6">
-        <v>0.009831672656960238</v>
+        <v>0.006082939245239696</v>
       </c>
       <c r="Q6">
-        <v>2.01101674698992</v>
+        <v>6.824432605512667</v>
       </c>
       <c r="R6">
-        <v>2.01101674698992</v>
+        <v>40.946595633076</v>
       </c>
       <c r="S6">
-        <v>0.009831672656960238</v>
+        <v>0.002156331881810478</v>
       </c>
       <c r="T6">
-        <v>0.009831672656960238</v>
+        <v>0.001441926866483527</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>6.971947</v>
+      </c>
+      <c r="H7">
+        <v>20.915841</v>
+      </c>
+      <c r="I7">
+        <v>0.762955569939001</v>
+      </c>
+      <c r="J7">
+        <v>0.762955569939001</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>328.5062863333333</v>
+      </c>
+      <c r="N7">
+        <v>985.518859</v>
+      </c>
+      <c r="O7">
+        <v>0.9485223498994318</v>
+      </c>
+      <c r="P7">
+        <v>0.9514072518130269</v>
+      </c>
+      <c r="Q7">
+        <v>2290.328417482824</v>
+      </c>
+      <c r="R7">
+        <v>20612.95575734542</v>
+      </c>
+      <c r="S7">
+        <v>0.7236804100674016</v>
+      </c>
+      <c r="T7">
+        <v>0.7258814620511066</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>6.971947</v>
+      </c>
+      <c r="H8">
+        <v>20.915841</v>
+      </c>
+      <c r="I8">
+        <v>0.762955569939001</v>
+      </c>
+      <c r="J8">
+        <v>0.762955569939001</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4.781633</v>
+      </c>
+      <c r="N8">
+        <v>14.344899</v>
+      </c>
+      <c r="O8">
+        <v>0.01380638958279946</v>
+      </c>
+      <c r="P8">
+        <v>0.0138483812973136</v>
+      </c>
+      <c r="Q8">
+        <v>33.337291849451</v>
+      </c>
+      <c r="R8">
+        <v>300.035626645059</v>
+      </c>
+      <c r="S8">
+        <v>0.01053366183294465</v>
+      </c>
+      <c r="T8">
+        <v>0.0105656996454245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>6.971947</v>
+      </c>
+      <c r="H9">
+        <v>20.915841</v>
+      </c>
+      <c r="I9">
+        <v>0.762955569939001</v>
+      </c>
+      <c r="J9">
+        <v>0.762955569939001</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>5.094370666666666</v>
+      </c>
+      <c r="N9">
+        <v>15.283112</v>
+      </c>
+      <c r="O9">
+        <v>0.0147093819419403</v>
+      </c>
+      <c r="P9">
+        <v>0.01475412008028422</v>
+      </c>
+      <c r="Q9">
+        <v>35.51768228635466</v>
+      </c>
+      <c r="R9">
+        <v>319.659140577192</v>
+      </c>
+      <c r="S9">
+        <v>0.01122260488296351</v>
+      </c>
+      <c r="T9">
+        <v>0.01125673809480171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>6.971947</v>
+      </c>
+      <c r="H10">
+        <v>20.915841</v>
+      </c>
+      <c r="I10">
+        <v>0.762955569939001</v>
+      </c>
+      <c r="J10">
+        <v>0.762955569939001</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.801979333333333</v>
+      </c>
+      <c r="N10">
+        <v>14.405938</v>
+      </c>
+      <c r="O10">
+        <v>0.01386513717061757</v>
+      </c>
+      <c r="P10">
+        <v>0.01390730756413546</v>
+      </c>
+      <c r="Q10">
+        <v>33.47914540709533</v>
+      </c>
+      <c r="R10">
+        <v>301.312308663858</v>
+      </c>
+      <c r="S10">
+        <v>0.01057848363229096</v>
+      </c>
+      <c r="T10">
+        <v>0.01061065776891195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>6.971947</v>
+      </c>
+      <c r="H11">
+        <v>20.915841</v>
+      </c>
+      <c r="I11">
+        <v>0.762955569939001</v>
+      </c>
+      <c r="J11">
+        <v>0.762955569939001</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.150518</v>
+      </c>
+      <c r="N11">
+        <v>6.301036</v>
+      </c>
+      <c r="O11">
+        <v>0.00909674140521077</v>
+      </c>
+      <c r="P11">
+        <v>0.006082939245239696</v>
+      </c>
+      <c r="Q11">
+        <v>21.965244518546</v>
+      </c>
+      <c r="R11">
+        <v>131.791467111276</v>
+      </c>
+      <c r="S11">
+        <v>0.006940409523400292</v>
+      </c>
+      <c r="T11">
+        <v>0.00464101237875617</v>
       </c>
     </row>
   </sheetData>
